--- a/biology/Histoire de la zoologie et de la botanique/Médaille_Darwin-Wallace/Médaille_Darwin-Wallace.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_Darwin-Wallace/Médaille_Darwin-Wallace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Darwin-Wallace</t>
+          <t>Médaille_Darwin-Wallace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La médaille Darwin-Wallace (anglais : Darwin-Wallace Medal) est une distinction remise par la Linnean Society of London pour récompenser des « personnes ayant fait avancer de manière significative la biologie de l'évolution[1] ».
-Cette médaille commémore la lecture, le 1er juillet 1858, à la Linnean Society of London d'« On the Tendency of Species to form Varieties; and on the Perpetuation of Varieties and Species by Natural Means of Selection (en) »[1], article scientifique regroupant deux textes (dont un extrait de L'Origine des espèces) de Charles Darwin et un essai (de) d'Alfred Russel Wallace, première présentation publique de leur théories respectives de l'évolution.
-Originellement remise à plusieurs chercheurs en 1908 et 1958 pour célébrer le cinquantenaire puis le centenaire de cette conférence, et le 12 février 2009 pour célébrer le bicentenaire de la naissance de Darwin[2], la médaille Darwin-Wallace est depuis 2010 remise annuellement[1], généralement à un seul chercheur.
-Hormis celle remise à Wallace lui-même en 1908, en or, cette médaille est depuis l'origine en argent[2].
+La médaille Darwin-Wallace (anglais : Darwin-Wallace Medal) est une distinction remise par la Linnean Society of London pour récompenser des « personnes ayant fait avancer de manière significative la biologie de l'évolution ».
+Cette médaille commémore la lecture, le 1er juillet 1858, à la Linnean Society of London d'« On the Tendency of Species to form Varieties; and on the Perpetuation of Varieties and Species by Natural Means of Selection (en) », article scientifique regroupant deux textes (dont un extrait de L'Origine des espèces) de Charles Darwin et un essai (de) d'Alfred Russel Wallace, première présentation publique de leur théories respectives de l'évolution.
+Originellement remise à plusieurs chercheurs en 1908 et 1958 pour célébrer le cinquantenaire puis le centenaire de cette conférence, et le 12 février 2009 pour célébrer le bicentenaire de la naissance de Darwin, la médaille Darwin-Wallace est depuis 2010 remise annuellement, généralement à un seul chercheur.
+Hormis celle remise à Wallace lui-même en 1908, en or, cette médaille est depuis l'origine en argent.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Darwin-Wallace</t>
+          <t>Médaille_Darwin-Wallace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Lauréats de 1908</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Médaille d’or
 Alfred Russel Wallace (1823-1913)
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Darwin-Wallace</t>
+          <t>Médaille_Darwin-Wallace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Lauréats de 1958</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Edgar Shannon Anderson (1897-1969)
 Maurice Caullery (1868-1958)
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Darwin-Wallace</t>
+          <t>Médaille_Darwin-Wallace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,9 +618,11 @@
           <t>Lauréats de 2009</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les lauréats pour le cent-cinquantenaire de la conférence sont annoncés le 27 mai 2008 par la Linnean Society[3], mais les médailles elles-mêmes ne sont remises que le 12 février 2009, pour célébrer le bicentenaire de la naissance de Darwin[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les lauréats pour le cent-cinquantenaire de la conférence sont annoncés le 27 mai 2008 par la Linnean Society, mais les médailles elles-mêmes ne sont remises que le 12 février 2009, pour célébrer le bicentenaire de la naissance de Darwin.
 Nick Barton (en) (1955-)
 Mark Wayne Chase (1951-)
 Bryan Clarke (1932-2014)
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Darwin-Wallace</t>
+          <t>Médaille_Darwin-Wallace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +662,9 @@
           <t>Lauréats annuels depuis 2010</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2010 : Brian Charlesworth
 2011 : James Lake
@@ -668,7 +688,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Darwin-Wallace</t>
+          <t>Médaille_Darwin-Wallace</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -686,7 +706,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) « The Darwin-Wallace Medal », sur linnean.org (consulté le 10 août 2018).</t>
         </is>
